--- a/qb_stats.xlsx
+++ b/qb_stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\Development\Projects\QB Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C64413CB-D5D6-4E63-9D19-941F02F77D6E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06ABBDE-B910-477C-BABD-FC494D4E02E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qb_stats - Copy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -209,12 +216,273 @@
   </si>
   <si>
     <t>13-34-0</t>
+  </si>
+  <si>
+    <t>Chris Chandler</t>
+  </si>
+  <si>
+    <t>67-85-0</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>Danny Kanell</t>
+  </si>
+  <si>
+    <t>10-13-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doug Johnson </t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>Kurt Kittner</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>Michael Vick</t>
+  </si>
+  <si>
+    <t>61-51-1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Matt Schaub</t>
+  </si>
+  <si>
+    <t>47-45-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Joey Harrington</t>
+  </si>
+  <si>
+    <t>26-50-0</t>
+  </si>
+  <si>
+    <t>Chris Redman</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>Byron Leftwich</t>
+  </si>
+  <si>
+    <t>24-26-0</t>
+  </si>
+  <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
+    <t>99-68-0</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>Tony Banks</t>
+  </si>
+  <si>
+    <t>35-43-0</t>
+  </si>
+  <si>
+    <t>Trent Dilfer</t>
+  </si>
+  <si>
+    <t>58-55-0</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>Elvis Grbac</t>
+  </si>
+  <si>
+    <t>40-30-0</t>
+  </si>
+  <si>
+    <t>Randall Cunningham</t>
+  </si>
+  <si>
+    <t>82-52-1</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>Kyle Boller</t>
+  </si>
+  <si>
+    <t>20-27-0</t>
+  </si>
+  <si>
+    <t>Anthony Wright</t>
+  </si>
+  <si>
+    <t>8-11-0</t>
+  </si>
+  <si>
+    <t>Steve McNair</t>
+  </si>
+  <si>
+    <t>91-62-0</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>Troy Smith</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>Joe Flacco</t>
+  </si>
+  <si>
+    <t>96-67-0</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>Jimmy Clausen</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>Ryan Mallett</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>Rob Johnson</t>
+  </si>
+  <si>
+    <t>12-17-0</t>
+  </si>
+  <si>
+    <t>Doug Flutie</t>
+  </si>
+  <si>
+    <t>38-28-0</t>
+  </si>
+  <si>
+    <t>Drew Bledsoe</t>
+  </si>
+  <si>
+    <t>98-95-0</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>Kelly Holcomb</t>
+  </si>
+  <si>
+    <t>8-16-0</t>
+  </si>
+  <si>
+    <t>Ryan Fitzpatrick</t>
+  </si>
+  <si>
+    <t>50-74-1</t>
+  </si>
+  <si>
+    <t>Brian Brohm</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>EJ Manuel</t>
+  </si>
+  <si>
+    <t>6-12-0</t>
+  </si>
+  <si>
+    <t>Jeff Tuel</t>
+  </si>
+  <si>
+    <t>Kyle Orton</t>
+  </si>
+  <si>
+    <t>42-40-0</t>
+  </si>
+  <si>
+    <t>Matt Cassel</t>
+  </si>
+  <si>
+    <t>36-45-0</t>
+  </si>
+  <si>
+    <t>Tyrod Taylor</t>
+  </si>
+  <si>
+    <t>23-21-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan Peterman </t>
+  </si>
+  <si>
+    <t>Matt Barkley</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>Alex Van Pelt</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>J.P. Losman</t>
+  </si>
+  <si>
+    <t>10-23-0</t>
+  </si>
+  <si>
+    <t>Trent Edwards</t>
+  </si>
+  <si>
+    <t>14-19-0</t>
+  </si>
+  <si>
+    <t>Thaddeus Lewis</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>Birthplace</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1049,1080 +1317,1157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="F3">
         <v>143</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>136</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>2484</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>4350</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>57.1</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>29253</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>161</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>3.7</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>161</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>3.7</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>85</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>6.7</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>5.8</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>11.8</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>204.6</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>74.599999999999994</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>284</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>1735</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>5.94</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>5.07</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>LEFT(A3,7)</f>
+        <v>Jake Pl</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>122</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>197</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>61.9</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>1340</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>3.6</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>59</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>6.8</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>5.2</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>11</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>223.3</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>72.7</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>10</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>48</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>6.24</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>4.74</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>LEFT(A3,8)</f>
+        <v>Jake Plu</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="F6">
         <v>73</v>
       </c>
-      <c r="C6">
+      <c r="G6">
         <v>60</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>892</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>1634</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>54.6</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>10248</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>44</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>2.7</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>58</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>3.5</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>71</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>6.3</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>5.2</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>11.5</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>140.4</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>67.900000000000006</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>181</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>1005</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>5.09</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>4.1399999999999997</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>LEFT(A6,7)</f>
+        <v>Dave Br</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>60</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>56</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>10</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>14</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>5.6</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>56</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <v>35.799999999999997</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>5.6</v>
-      </c>
-      <c r="V7">
-        <v>1.1000000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>5.6</v>
+      </c>
+      <c r="Z7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>LEFT(A6,8)</f>
+        <v>Dave Bro</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
+      <c r="F9">
         <v>119</v>
       </c>
-      <c r="C9">
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>1827</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <v>3241</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>56.4</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>21711</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>134</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>99</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>3.1</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>88</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>6.7</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>6.2</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>11.9</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>182.4</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>78</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>248</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>1550</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>5.78</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <v>5.27</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>7.1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>LEFT(A9,7)</f>
+        <v>Jeff Bl</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
+      <c r="F11">
         <v>51</v>
       </c>
-      <c r="C11">
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>214</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>555</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>38.6</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>2895</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>17</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>3.1</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>38</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>6.8</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>90</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>5.2</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>2.7</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>13.5</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>56.8</v>
       </c>
-      <c r="R11">
+      <c r="V11">
         <v>37.6</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>3</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>3</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>LEFT(A11,7)</f>
+        <v>John Mc</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="F13">
         <v>34</v>
       </c>
-      <c r="C13">
+      <c r="G13">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13">
+      <c r="I13">
         <v>415</v>
       </c>
-      <c r="F13">
+      <c r="J13">
         <v>738</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>56.2</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>4566</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>27</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>3.7</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>24</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>3.3</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>75</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>6.2</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>5.5</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>11</v>
       </c>
-      <c r="Q13">
+      <c r="U13">
         <v>134.30000000000001</v>
       </c>
-      <c r="R13">
+      <c r="V13">
         <v>73.400000000000006</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>61</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>419</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>5.19</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>4.51</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>7.6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>LEFT(A13,7)</f>
+        <v>Shaun K</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14">
+      <c r="I14">
         <v>45</v>
       </c>
-      <c r="F14">
+      <c r="J14">
         <v>92</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <v>48.9</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>491</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>3.3</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>41</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>5.3</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>10.9</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>163.69999999999999</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>55.1</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>11</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>73</v>
       </c>
-      <c r="U14">
+      <c r="Y14">
         <v>4.0599999999999996</v>
       </c>
-      <c r="V14">
+      <c r="Z14">
         <v>2.94</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <v>10.7</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>LEFT(A13,8)</f>
+        <v>Shaun Ki</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16">
+      <c r="I16">
         <v>32</v>
       </c>
-      <c r="F16">
+      <c r="J16">
         <v>64</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>50</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>342</v>
       </c>
-      <c r="I16">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>3.1</v>
       </c>
-      <c r="K16">
+      <c r="O16">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>7.8</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>43</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>5.3</v>
       </c>
-      <c r="O16">
+      <c r="S16">
         <v>2.5</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>10.7</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>171</v>
       </c>
-      <c r="R16">
+      <c r="V16">
         <v>43.9</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>5</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>35</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>4.45</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>1.77</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>7.2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>LEFT(A16,7)</f>
+        <v>John Na</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
+      <c r="F18">
         <v>124</v>
       </c>
-      <c r="C18">
+      <c r="G18">
         <v>116</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18">
+      <c r="I18">
         <v>2666</v>
       </c>
-      <c r="F18">
+      <c r="J18">
         <v>4070</v>
       </c>
-      <c r="G18">
+      <c r="K18">
         <v>65.5</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>32344</v>
       </c>
-      <c r="I18">
+      <c r="M18">
         <v>208</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>128</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>3.1</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>85</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>7.9</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>7.6</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>12.1</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>260.8</v>
       </c>
-      <c r="R18">
+      <c r="V18">
         <v>93.7</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>260</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>1669</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>7.08</v>
       </c>
-      <c r="V18">
+      <c r="Z18">
         <v>6.71</v>
       </c>
-      <c r="W18">
+      <c r="AA18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>LEFT(A18,7)</f>
+        <v>Kurt Wa</v>
+      </c>
+      <c r="F19">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="G19">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E19">
+      <c r="I19">
         <v>307</v>
       </c>
-      <c r="F19">
+      <c r="J19">
         <v>462</v>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>66.5</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>3952</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>31</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>6.7</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>14</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>3</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>77</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>8.6</v>
       </c>
-      <c r="O19">
+      <c r="S19">
         <v>8.5</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <v>12.9</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <v>304</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <v>102.8</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>19</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>116</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>7.98</v>
       </c>
-      <c r="V19">
+      <c r="Z19">
         <v>7.95</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>LEFT(A18,8)</f>
+        <v>Kurt War</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="F21">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="G21">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21">
+      <c r="I21">
         <v>366</v>
       </c>
-      <c r="F21">
+      <c r="J21">
         <v>641</v>
       </c>
-      <c r="G21">
+      <c r="K21">
         <v>57.1</v>
       </c>
-      <c r="H21">
+      <c r="L21">
         <v>4065</v>
       </c>
-      <c r="I21">
+      <c r="M21">
         <v>15</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K21">
+      <c r="O21">
         <v>21</v>
       </c>
-      <c r="L21">
+      <c r="P21">
         <v>3.3</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>78</v>
       </c>
-      <c r="N21">
+      <c r="R21">
         <v>6.3</v>
       </c>
-      <c r="O21">
+      <c r="S21">
         <v>5.3</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>11.1</v>
       </c>
-      <c r="Q21">
+      <c r="U21">
         <v>123.2</v>
       </c>
-      <c r="R21">
+      <c r="V21">
         <v>70.2</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>30</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>221</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>5.73</v>
       </c>
-      <c r="V21">
+      <c r="Z21">
         <v>4.7699999999999996</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>LEFT(A21,7)</f>
+        <v>Matt Le</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="I22">
         <v>7</v>
       </c>
-      <c r="F22">
+      <c r="J22">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="K22">
         <v>70</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>61</v>
       </c>
-      <c r="I22">
+      <c r="M22">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="O22">
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <v>16</v>
       </c>
-      <c r="N22">
+      <c r="R22">
         <v>6.1</v>
       </c>
-      <c r="O22">
+      <c r="S22">
         <v>6.1</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q22">
+      <c r="U22">
         <v>61</v>
       </c>
-      <c r="R22">
+      <c r="V22">
         <v>85.8</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>6.1</v>
-      </c>
-      <c r="V22">
-        <v>6.1</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>6.1</v>
+      </c>
+      <c r="Z22">
+        <v>6.1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>LEFT(A21,8)</f>
+        <v>Matt Lei</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
+      <c r="F24">
         <v>78</v>
       </c>
-      <c r="C24">
+      <c r="G24">
         <v>49</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24">
+      <c r="I24">
         <v>909</v>
       </c>
-      <c r="F24">
+      <c r="J24">
         <v>1674</v>
       </c>
-      <c r="G24">
+      <c r="K24">
         <v>54.3</v>
       </c>
-      <c r="H24">
+      <c r="L24">
         <v>10878</v>
       </c>
-      <c r="I24">
+      <c r="M24">
         <v>60</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>3.6</v>
       </c>
-      <c r="K24">
+      <c r="O24">
         <v>64</v>
       </c>
-      <c r="L24">
+      <c r="P24">
         <v>3.8</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>78</v>
       </c>
-      <c r="N24">
+      <c r="R24">
         <v>6.5</v>
       </c>
-      <c r="O24">
+      <c r="S24">
         <v>5.5</v>
       </c>
-      <c r="P24">
+      <c r="T24">
         <v>12</v>
       </c>
-      <c r="Q24">
+      <c r="U24">
         <v>139.5</v>
       </c>
-      <c r="R24">
+      <c r="V24">
         <v>70.400000000000006</v>
       </c>
-      <c r="S24">
+      <c r="W24">
         <v>81</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>563</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>5.88</v>
       </c>
-      <c r="V24">
+      <c r="Z24">
         <v>4.92</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>LEFT(A24,7)</f>
+        <v>Derek A</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2139,869 +2484,5368 @@
       <c r="O25">
         <v>0</v>
       </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>39.6</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>LEFT(A24,8)</f>
+        <v>Derek An</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27">
+      <c r="F27">
         <v>20</v>
       </c>
-      <c r="C27">
+      <c r="G27">
         <v>17</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E27">
+      <c r="I27">
         <v>320</v>
       </c>
-      <c r="F27">
+      <c r="J27">
         <v>602</v>
       </c>
-      <c r="G27">
+      <c r="K27">
         <v>53.2</v>
       </c>
-      <c r="H27">
+      <c r="L27">
         <v>3707</v>
       </c>
-      <c r="I27">
+      <c r="M27">
         <v>15</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <v>2.5</v>
       </c>
-      <c r="K27">
+      <c r="O27">
         <v>25</v>
       </c>
-      <c r="L27">
+      <c r="P27">
         <v>4.2</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
         <v>74</v>
       </c>
-      <c r="N27">
+      <c r="R27">
         <v>6.2</v>
       </c>
-      <c r="O27">
+      <c r="S27">
         <v>4.8</v>
       </c>
-      <c r="P27">
+      <c r="T27">
         <v>11.6</v>
       </c>
-      <c r="Q27">
+      <c r="U27">
         <v>185.4</v>
       </c>
-      <c r="R27">
+      <c r="V27">
         <v>63</v>
       </c>
-      <c r="S27">
+      <c r="W27">
         <v>47</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>325</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
         <v>5.21</v>
       </c>
-      <c r="V27">
+      <c r="Z27">
         <v>3.94</v>
       </c>
-      <c r="W27">
+      <c r="AA27">
         <v>7.2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>LEFT(A27,7)</f>
+        <v>John Sk</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B29">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="C29">
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E29">
+      <c r="I29">
         <v>39</v>
       </c>
-      <c r="F29">
+      <c r="J29">
         <v>78</v>
       </c>
-      <c r="G29">
+      <c r="K29">
         <v>50</v>
       </c>
-      <c r="H29">
+      <c r="L29">
         <v>370</v>
       </c>
-      <c r="I29">
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>1.3</v>
       </c>
-      <c r="K29">
+      <c r="O29">
         <v>6</v>
       </c>
-      <c r="L29">
+      <c r="P29">
         <v>7.7</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>26</v>
       </c>
-      <c r="N29">
+      <c r="R29">
         <v>4.7</v>
       </c>
-      <c r="O29">
+      <c r="S29">
         <v>1.5</v>
       </c>
-      <c r="P29">
+      <c r="T29">
         <v>9.5</v>
       </c>
-      <c r="Q29">
+      <c r="U29">
         <v>61.7</v>
       </c>
-      <c r="R29">
+      <c r="V29">
         <v>35.700000000000003</v>
       </c>
-      <c r="S29">
+      <c r="W29">
         <v>14</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>90</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
         <v>3.04</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>0.33</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>15.2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>LEFT(A29,7)</f>
+        <v>Max Hal</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B31">
+      <c r="F31">
         <v>34</v>
       </c>
-      <c r="C31">
+      <c r="G31">
         <v>21</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E31">
+      <c r="I31">
         <v>449</v>
       </c>
-      <c r="F31">
+      <c r="J31">
         <v>755</v>
       </c>
-      <c r="G31">
+      <c r="K31">
         <v>59.5</v>
       </c>
-      <c r="H31">
+      <c r="L31">
         <v>5206</v>
       </c>
-      <c r="I31">
+      <c r="M31">
         <v>28</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>3.7</v>
       </c>
-      <c r="K31">
+      <c r="O31">
         <v>25</v>
       </c>
-      <c r="L31">
+      <c r="P31">
         <v>3.3</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>83</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>6.9</v>
       </c>
-      <c r="O31">
+      <c r="S31">
         <v>6.1</v>
       </c>
-      <c r="P31">
+      <c r="T31">
         <v>11.6</v>
       </c>
-      <c r="Q31">
+      <c r="U31">
         <v>153.1</v>
       </c>
-      <c r="R31">
+      <c r="V31">
         <v>78.900000000000006</v>
       </c>
-      <c r="S31">
+      <c r="W31">
         <v>77</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>517</v>
       </c>
-      <c r="U31">
+      <c r="Y31">
         <v>5.64</v>
       </c>
-      <c r="V31">
+      <c r="Z31">
         <v>4.96</v>
       </c>
-      <c r="W31">
+      <c r="AA31">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>LEFT(A31,7)</f>
+        <v>Kevin K</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33">
+        <v>140</v>
+      </c>
+      <c r="J33">
+        <v>274</v>
+      </c>
+      <c r="K33">
+        <v>51.1</v>
+      </c>
+      <c r="L33">
+        <v>1372</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O33">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>41</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>3.4</v>
+      </c>
+      <c r="T33">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U33">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="V33">
+        <v>52.4</v>
+      </c>
+      <c r="W33">
+        <v>18</v>
+      </c>
+      <c r="X33">
+        <v>137</v>
+      </c>
+      <c r="Y33">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="Z33">
+        <v>2.74</v>
+      </c>
+      <c r="AA33">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>LEFT(A33,7)</f>
+        <v>Ryan Li</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>28</v>
+      </c>
+      <c r="K34">
+        <v>57.1</v>
+      </c>
+      <c r="L34">
+        <v>82</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3.6</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>7.1</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+      <c r="R34">
+        <v>2.9</v>
+      </c>
+      <c r="S34">
+        <v>0.4</v>
+      </c>
+      <c r="T34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U34">
+        <v>82</v>
+      </c>
+      <c r="V34">
+        <v>44.3</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>31</v>
+      </c>
+      <c r="Y34">
+        <v>1.59</v>
+      </c>
+      <c r="Z34">
+        <v>-0.59</v>
+      </c>
+      <c r="AA34">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>LEFT(A33,8)</f>
+        <v>Ryan Lin</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36">
+        <v>62</v>
+      </c>
+      <c r="G36">
+        <v>37</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36">
+        <v>837</v>
+      </c>
+      <c r="J36">
+        <v>1410</v>
+      </c>
+      <c r="K36">
+        <v>59.4</v>
+      </c>
+      <c r="L36">
+        <v>9895</v>
+      </c>
+      <c r="M36">
+        <v>48</v>
+      </c>
+      <c r="N36">
+        <v>3.4</v>
+      </c>
+      <c r="O36">
+        <v>30</v>
+      </c>
+      <c r="P36">
+        <v>2.1</v>
+      </c>
+      <c r="Q36">
+        <v>81</v>
+      </c>
+      <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>6.7</v>
+      </c>
+      <c r="T36">
+        <v>11.8</v>
+      </c>
+      <c r="U36">
+        <v>159.6</v>
+      </c>
+      <c r="V36">
+        <v>83.3</v>
+      </c>
+      <c r="W36">
+        <v>81</v>
+      </c>
+      <c r="X36">
+        <v>571</v>
+      </c>
+      <c r="Y36">
+        <v>6.25</v>
+      </c>
+      <c r="Z36">
+        <v>5.99</v>
+      </c>
+      <c r="AA36">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>LEFT(A36,7)</f>
+        <v>Brian H</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>34</v>
+      </c>
+      <c r="K37">
+        <v>44.1</v>
+      </c>
+      <c r="L37">
+        <v>136</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>11.8</v>
+      </c>
+      <c r="Q37">
+        <v>17</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>-1.3</v>
+      </c>
+      <c r="T37">
+        <v>9.1</v>
+      </c>
+      <c r="U37">
+        <v>68</v>
+      </c>
+      <c r="V37">
+        <v>15.9</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
+      </c>
+      <c r="X37">
+        <v>24</v>
+      </c>
+      <c r="Y37">
+        <v>3.03</v>
+      </c>
+      <c r="Z37">
+        <v>-1.84</v>
+      </c>
+      <c r="AA37">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>LEFT(A36,8)</f>
+        <v>Brian Ho</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39">
+        <v>182</v>
+      </c>
+      <c r="G39">
+        <v>181</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39">
+        <v>3941</v>
+      </c>
+      <c r="J39">
+        <v>6307</v>
+      </c>
+      <c r="K39">
+        <v>62.5</v>
+      </c>
+      <c r="L39">
+        <v>46247</v>
+      </c>
+      <c r="M39">
+        <v>294</v>
+      </c>
+      <c r="N39">
+        <v>4.7</v>
+      </c>
+      <c r="O39">
+        <v>187</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>91</v>
+      </c>
+      <c r="R39">
+        <v>7.3</v>
+      </c>
+      <c r="S39">
+        <v>6.9</v>
+      </c>
+      <c r="T39">
+        <v>11.7</v>
+      </c>
+      <c r="U39">
+        <v>254.1</v>
+      </c>
+      <c r="V39">
+        <v>87.9</v>
+      </c>
+      <c r="W39">
+        <v>340</v>
+      </c>
+      <c r="X39">
+        <v>2364</v>
+      </c>
+      <c r="Y39">
+        <v>6.6</v>
+      </c>
+      <c r="Z39">
+        <v>6.22</v>
+      </c>
+      <c r="AA39">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>LEFT(A39,7)</f>
+        <v xml:space="preserve">Carson </v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40">
+        <v>67</v>
+      </c>
+      <c r="J40">
+        <v>118</v>
+      </c>
+      <c r="K40">
+        <v>56.8</v>
+      </c>
+      <c r="L40">
+        <v>796</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>4.2</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>5.9</v>
+      </c>
+      <c r="Q40">
+        <v>75</v>
+      </c>
+      <c r="R40">
+        <v>6.7</v>
+      </c>
+      <c r="S40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T40">
+        <v>11.9</v>
+      </c>
+      <c r="U40">
+        <v>199</v>
+      </c>
+      <c r="V40">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="W40">
+        <v>9</v>
+      </c>
+      <c r="X40">
+        <v>65</v>
+      </c>
+      <c r="Y40">
+        <v>5.76</v>
+      </c>
+      <c r="Z40">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AA40">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>LEFT(A39,8)</f>
+        <v>Carson P</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>17</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42">
+        <v>345</v>
+      </c>
+      <c r="J42">
+        <v>659</v>
+      </c>
+      <c r="K42">
+        <v>52.4</v>
+      </c>
+      <c r="L42">
+        <v>4059</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>24</v>
+      </c>
+      <c r="P42">
+        <v>3.6</v>
+      </c>
+      <c r="Q42">
+        <v>87</v>
+      </c>
+      <c r="R42">
+        <v>6.2</v>
+      </c>
+      <c r="S42">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T42">
+        <v>11.8</v>
+      </c>
+      <c r="U42">
+        <v>106.8</v>
+      </c>
+      <c r="V42">
+        <v>66.3</v>
+      </c>
+      <c r="W42">
+        <v>38</v>
+      </c>
+      <c r="X42">
+        <v>226</v>
+      </c>
+      <c r="Y42">
+        <v>5.5</v>
+      </c>
+      <c r="Z42">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AA42">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>LEFT(A42,7)</f>
+        <v>Drew St</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>47</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44">
+        <v>806</v>
+      </c>
+      <c r="J44">
+        <v>1442</v>
+      </c>
+      <c r="K44">
+        <v>55.9</v>
+      </c>
+      <c r="L44">
+        <v>8679</v>
+      </c>
+      <c r="M44">
+        <v>45</v>
+      </c>
+      <c r="N44">
+        <v>3.1</v>
+      </c>
+      <c r="O44">
         <v>44</v>
       </c>
-      <c r="B33">
+      <c r="P44">
+        <v>3.1</v>
+      </c>
+      <c r="Q44">
+        <v>80</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+      <c r="S44">
+        <v>5.3</v>
+      </c>
+      <c r="T44">
+        <v>10.8</v>
+      </c>
+      <c r="U44">
+        <v>170.2</v>
+      </c>
+      <c r="V44">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="W44">
+        <v>136</v>
+      </c>
+      <c r="X44">
+        <v>904</v>
+      </c>
+      <c r="Y44">
+        <v>4.93</v>
+      </c>
+      <c r="Z44">
+        <v>4.24</v>
+      </c>
+      <c r="AA44">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>LEFT(A44,7)</f>
+        <v xml:space="preserve">Blaine </v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46">
+        <v>180</v>
+      </c>
+      <c r="G46">
+        <v>152</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46">
+        <v>2328</v>
+      </c>
+      <c r="J46">
+        <v>4005</v>
+      </c>
+      <c r="K46">
+        <v>58.1</v>
+      </c>
+      <c r="L46">
+        <v>28484</v>
+      </c>
+      <c r="M46">
+        <v>170</v>
+      </c>
+      <c r="N46">
+        <v>4.2</v>
+      </c>
+      <c r="O46">
+        <v>146</v>
+      </c>
+      <c r="P46">
+        <v>3.6</v>
+      </c>
+      <c r="Q46">
+        <v>94</v>
+      </c>
+      <c r="R46">
+        <v>7.1</v>
+      </c>
+      <c r="S46">
+        <v>6.3</v>
+      </c>
+      <c r="T46">
+        <v>12.2</v>
+      </c>
+      <c r="U46">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="V46">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="W46">
+        <v>380</v>
+      </c>
+      <c r="X46">
+        <v>2590</v>
+      </c>
+      <c r="Y46">
+        <v>5.91</v>
+      </c>
+      <c r="Z46">
+        <v>5.18</v>
+      </c>
+      <c r="AA46">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>LEFT(A46,7)</f>
+        <v>Chris C</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47">
+        <v>59</v>
+      </c>
+      <c r="J47">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>60.8</v>
+      </c>
+      <c r="L47">
+        <v>728</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q47">
+        <v>70</v>
+      </c>
+      <c r="R47">
+        <v>7.5</v>
+      </c>
+      <c r="S47">
+        <v>6.5</v>
+      </c>
+      <c r="T47">
+        <v>12.3</v>
+      </c>
+      <c r="U47">
+        <v>242.7</v>
+      </c>
+      <c r="V47">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="W47">
+        <v>7</v>
+      </c>
+      <c r="X47">
+        <v>52</v>
+      </c>
+      <c r="Y47">
+        <v>6.5</v>
+      </c>
+      <c r="Z47">
+        <v>5.54</v>
+      </c>
+      <c r="AA47">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>LEFT(A46,8)</f>
+        <v>Chris Ch</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49">
+        <v>43</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49">
+        <v>491</v>
+      </c>
+      <c r="J49">
+        <v>956</v>
+      </c>
+      <c r="K49">
+        <v>51.4</v>
+      </c>
+      <c r="L49">
+        <v>5129</v>
+      </c>
+      <c r="M49">
+        <v>31</v>
+      </c>
+      <c r="N49">
+        <v>3.2</v>
+      </c>
+      <c r="O49">
+        <v>34</v>
+      </c>
+      <c r="P49">
+        <v>3.6</v>
+      </c>
+      <c r="Q49">
+        <v>68</v>
+      </c>
+      <c r="R49">
+        <v>5.4</v>
+      </c>
+      <c r="S49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T49">
+        <v>10.4</v>
+      </c>
+      <c r="U49">
+        <v>119.3</v>
+      </c>
+      <c r="V49">
+        <v>63.2</v>
+      </c>
+      <c r="W49">
+        <v>63</v>
+      </c>
+      <c r="X49">
+        <v>512</v>
+      </c>
+      <c r="Y49">
+        <v>4.53</v>
+      </c>
+      <c r="Z49">
+        <v>3.64</v>
+      </c>
+      <c r="AA49">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>LEFT(A49,7)</f>
+        <v>Danny K</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50">
+        <v>16</v>
+      </c>
+      <c r="J50">
+        <v>32</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
+        <v>199</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3.1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>37</v>
+      </c>
+      <c r="R50">
+        <v>6.2</v>
+      </c>
+      <c r="S50">
+        <v>6.8</v>
+      </c>
+      <c r="T50">
+        <v>12.4</v>
+      </c>
+      <c r="U50">
+        <v>199</v>
+      </c>
+      <c r="V50">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>9</v>
+      </c>
+      <c r="Y50">
+        <v>5.76</v>
+      </c>
+      <c r="Z50">
+        <v>6.36</v>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>LEFT(A49,8)</f>
+        <v>Danny Ka</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52">
+        <v>218</v>
+      </c>
+      <c r="J52">
+        <v>384</v>
+      </c>
+      <c r="K52">
+        <v>56.8</v>
+      </c>
+      <c r="L52">
+        <v>2600</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>3.4</v>
+      </c>
+      <c r="O52">
+        <v>18</v>
+      </c>
+      <c r="P52">
+        <v>4.7</v>
+      </c>
+      <c r="Q52">
+        <v>86</v>
+      </c>
+      <c r="R52">
+        <v>6.8</v>
+      </c>
+      <c r="S52">
+        <v>5.3</v>
+      </c>
+      <c r="T52">
+        <v>11.9</v>
+      </c>
+      <c r="U52">
+        <v>104</v>
+      </c>
+      <c r="V52">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="W52">
+        <v>38</v>
+      </c>
+      <c r="X52">
+        <v>226</v>
+      </c>
+      <c r="Y52">
+        <v>5.63</v>
+      </c>
+      <c r="Z52">
+        <v>4.32</v>
+      </c>
+      <c r="AA52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>LEFT(A52,7)</f>
+        <v>Doug Jo</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>14</v>
+      </c>
+      <c r="R53">
+        <v>14</v>
+      </c>
+      <c r="S53">
+        <v>14</v>
+      </c>
+      <c r="T53">
+        <v>14</v>
+      </c>
+      <c r="U53">
+        <v>14</v>
+      </c>
+      <c r="V53">
+        <v>118.7</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+      <c r="Z53">
+        <v>14</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>LEFT(A52,8)</f>
+        <v>Doug Joh</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55">
+        <v>44</v>
+      </c>
+      <c r="J55">
+        <v>114</v>
+      </c>
+      <c r="K55">
+        <v>38.6</v>
+      </c>
+      <c r="L55">
+        <v>391</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>1.8</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>5.3</v>
+      </c>
+      <c r="Q55">
+        <v>31</v>
+      </c>
+      <c r="R55">
+        <v>3.4</v>
+      </c>
+      <c r="S55">
+        <v>1.4</v>
+      </c>
+      <c r="T55">
+        <v>8.9</v>
+      </c>
+      <c r="U55">
+        <v>55.9</v>
+      </c>
+      <c r="V55">
+        <v>32.5</v>
+      </c>
+      <c r="W55">
+        <v>5</v>
+      </c>
+      <c r="X55">
+        <v>30</v>
+      </c>
+      <c r="Y55">
+        <v>3.03</v>
+      </c>
+      <c r="Z55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>LEFT(A55,7)</f>
+        <v>Kurt Ki</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57">
+        <v>143</v>
+      </c>
+      <c r="G57">
+        <v>115</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57">
+        <v>1807</v>
+      </c>
+      <c r="J57">
+        <v>3217</v>
+      </c>
+      <c r="K57">
+        <v>56.2</v>
+      </c>
+      <c r="L57">
+        <v>22464</v>
+      </c>
+      <c r="M57">
+        <v>133</v>
+      </c>
+      <c r="N57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O57">
+        <v>88</v>
+      </c>
+      <c r="P57">
+        <v>2.7</v>
+      </c>
+      <c r="Q57">
+        <v>91</v>
+      </c>
+      <c r="R57">
+        <v>7</v>
+      </c>
+      <c r="S57">
+        <v>6.6</v>
+      </c>
+      <c r="T57">
+        <v>12.4</v>
+      </c>
+      <c r="U57">
+        <v>157.1</v>
+      </c>
+      <c r="V57">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="W57">
+        <v>316</v>
+      </c>
+      <c r="X57">
+        <v>1879</v>
+      </c>
+      <c r="Y57">
+        <v>5.83</v>
+      </c>
+      <c r="Z57">
+        <v>5.46</v>
+      </c>
+      <c r="AA57">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>LEFT(A57,9)</f>
+        <v>Michael V</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58">
+        <v>79</v>
+      </c>
+      <c r="J58">
+        <v>141</v>
+      </c>
+      <c r="K58">
+        <v>56</v>
+      </c>
+      <c r="L58">
+        <v>977</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <v>3.5</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>2.8</v>
+      </c>
+      <c r="Q58">
+        <v>76</v>
+      </c>
+      <c r="R58">
+        <v>6.9</v>
+      </c>
+      <c r="S58">
+        <v>6.4</v>
+      </c>
+      <c r="T58">
+        <v>12.4</v>
+      </c>
+      <c r="U58">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="V58">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="W58">
+        <v>11</v>
+      </c>
+      <c r="X58">
+        <v>95</v>
+      </c>
+      <c r="Y58">
+        <v>5.8</v>
+      </c>
+      <c r="Z58">
+        <v>5.28</v>
+      </c>
+      <c r="AA58">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>LEFT(A57,10)</f>
+        <v>Michael Vi</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60">
+        <v>147</v>
+      </c>
+      <c r="G60">
+        <v>92</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60">
+        <v>2098</v>
+      </c>
+      <c r="J60">
+        <v>3281</v>
+      </c>
+      <c r="K60">
+        <v>63.9</v>
+      </c>
+      <c r="L60">
+        <v>24887</v>
+      </c>
+      <c r="M60">
+        <v>133</v>
+      </c>
+      <c r="N60">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O60">
+        <v>90</v>
+      </c>
+      <c r="P60">
+        <v>2.7</v>
+      </c>
+      <c r="Q60">
+        <v>80</v>
+      </c>
+      <c r="R60">
+        <v>7.6</v>
+      </c>
+      <c r="S60">
+        <v>7.2</v>
+      </c>
+      <c r="T60">
+        <v>11.9</v>
+      </c>
+      <c r="U60">
+        <v>169.3</v>
+      </c>
+      <c r="V60">
+        <v>89.1</v>
+      </c>
+      <c r="W60">
+        <v>178</v>
+      </c>
+      <c r="X60">
+        <v>1226</v>
+      </c>
+      <c r="Y60">
+        <v>6.84</v>
+      </c>
+      <c r="Z60">
+        <v>6.44</v>
+      </c>
+      <c r="AA60">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>LEFT(A60,7)</f>
+        <v>Matt Sc</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61">
+        <v>63</v>
+      </c>
+      <c r="J61">
+        <v>89</v>
+      </c>
+      <c r="K61">
+        <v>70.8</v>
+      </c>
+      <c r="L61">
+        <v>605</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q61">
+        <v>28</v>
+      </c>
+      <c r="R61">
+        <v>6.8</v>
+      </c>
+      <c r="S61">
+        <v>6.2</v>
+      </c>
+      <c r="T61">
+        <v>9.6</v>
+      </c>
+      <c r="U61">
+        <v>201.7</v>
+      </c>
+      <c r="V61">
+        <v>87.5</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>9</v>
+      </c>
+      <c r="Y61">
+        <v>6.62</v>
+      </c>
+      <c r="Z61">
+        <v>6.07</v>
+      </c>
+      <c r="AA61">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>LEFT(A60,8)</f>
+        <v>Matt Sch</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63">
+        <v>81</v>
+      </c>
+      <c r="G63">
+        <v>76</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>1424</v>
+      </c>
+      <c r="J63">
+        <v>2538</v>
+      </c>
+      <c r="K63">
+        <v>56.1</v>
+      </c>
+      <c r="L63">
+        <v>14693</v>
+      </c>
+      <c r="M63">
+        <v>79</v>
+      </c>
+      <c r="N63">
+        <v>3.1</v>
+      </c>
+      <c r="O63">
+        <v>85</v>
+      </c>
+      <c r="P63">
+        <v>3.3</v>
+      </c>
+      <c r="Q63">
+        <v>86</v>
+      </c>
+      <c r="R63">
+        <v>5.8</v>
+      </c>
+      <c r="S63">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T63">
+        <v>10.3</v>
+      </c>
+      <c r="U63">
+        <v>181.4</v>
+      </c>
+      <c r="V63">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="W63">
+        <v>124</v>
+      </c>
+      <c r="X63">
+        <v>770</v>
+      </c>
+      <c r="Y63">
+        <v>5.23</v>
+      </c>
+      <c r="Z63">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AA63">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>LEFT(A63,7)</f>
+        <v>Joey Ha</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65">
+        <v>31</v>
+      </c>
+      <c r="G65">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65">
+        <v>286</v>
+      </c>
+      <c r="J65">
+        <v>500</v>
+      </c>
+      <c r="K65">
+        <v>57.2</v>
+      </c>
+      <c r="L65">
+        <v>3179</v>
+      </c>
+      <c r="M65">
+        <v>21</v>
+      </c>
+      <c r="N65">
+        <v>4.2</v>
+      </c>
+      <c r="O65">
+        <v>14</v>
+      </c>
+      <c r="P65">
+        <v>2.8</v>
+      </c>
+      <c r="Q65">
+        <v>74</v>
+      </c>
+      <c r="R65">
+        <v>6.4</v>
+      </c>
+      <c r="S65">
+        <v>5.9</v>
+      </c>
+      <c r="T65">
+        <v>11.1</v>
+      </c>
+      <c r="U65">
+        <v>102.5</v>
+      </c>
+      <c r="V65">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="W65">
+        <v>34</v>
+      </c>
+      <c r="X65">
+        <v>198</v>
+      </c>
+      <c r="Y65">
+        <v>5.58</v>
+      </c>
+      <c r="Z65">
+        <v>5.19</v>
+      </c>
+      <c r="AA65">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>LEFT(A65,7)</f>
+        <v>Chris R</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67">
+        <v>60</v>
+      </c>
+      <c r="G67">
+        <v>50</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67">
+        <v>930</v>
+      </c>
+      <c r="J67">
+        <v>1605</v>
+      </c>
+      <c r="K67">
+        <v>57.9</v>
+      </c>
+      <c r="L67">
+        <v>10532</v>
+      </c>
+      <c r="M67">
+        <v>58</v>
+      </c>
+      <c r="N67">
+        <v>3.6</v>
+      </c>
+      <c r="O67">
+        <v>42</v>
+      </c>
+      <c r="P67">
+        <v>2.6</v>
+      </c>
+      <c r="Q67">
+        <v>84</v>
+      </c>
+      <c r="R67">
+        <v>6.6</v>
+      </c>
+      <c r="S67">
+        <v>6.1</v>
+      </c>
+      <c r="T67">
+        <v>11.3</v>
+      </c>
+      <c r="U67">
+        <v>175.5</v>
+      </c>
+      <c r="V67">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="W67">
+        <v>92</v>
+      </c>
+      <c r="X67">
+        <v>452</v>
+      </c>
+      <c r="Y67">
+        <v>5.94</v>
+      </c>
+      <c r="Z67">
+        <v>5.51</v>
+      </c>
+      <c r="AA67">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>LEFT(A67,7)</f>
+        <v>Byron L</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68">
+        <v>18</v>
+      </c>
+      <c r="J68">
+        <v>32</v>
+      </c>
+      <c r="K68">
+        <v>56.3</v>
+      </c>
+      <c r="L68">
+        <v>179</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>3.1</v>
+      </c>
+      <c r="Q68">
+        <v>24</v>
+      </c>
+      <c r="R68">
+        <v>5.6</v>
+      </c>
+      <c r="S68">
+        <v>4.2</v>
+      </c>
+      <c r="T68">
+        <v>9.9</v>
+      </c>
+      <c r="U68">
+        <v>89.5</v>
+      </c>
+      <c r="V68">
+        <v>59.2</v>
+      </c>
+      <c r="W68">
+        <v>4</v>
+      </c>
+      <c r="X68">
+        <v>30</v>
+      </c>
+      <c r="Y68">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Z68">
+        <v>2.89</v>
+      </c>
+      <c r="AA68">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>LEFT(A67,8)</f>
+        <v>Byron Le</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70">
+        <v>167</v>
+      </c>
+      <c r="G70">
+        <v>167</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70">
+        <v>3881</v>
+      </c>
+      <c r="J70">
+        <v>5946</v>
+      </c>
+      <c r="K70">
+        <v>65.3</v>
+      </c>
+      <c r="L70">
+        <v>44811</v>
+      </c>
+      <c r="M70">
+        <v>281</v>
+      </c>
+      <c r="N70">
+        <v>4.7</v>
+      </c>
+      <c r="O70">
+        <v>129</v>
+      </c>
+      <c r="P70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q70">
+        <v>90</v>
+      </c>
+      <c r="R70">
+        <v>7.5</v>
+      </c>
+      <c r="S70">
+        <v>7.5</v>
+      </c>
+      <c r="T70">
+        <v>11.5</v>
+      </c>
+      <c r="U70">
+        <v>268.3</v>
+      </c>
+      <c r="V70">
+        <v>94.6</v>
+      </c>
+      <c r="W70">
+        <v>303</v>
+      </c>
+      <c r="X70">
+        <v>1997</v>
+      </c>
+      <c r="Y70">
+        <v>6.85</v>
+      </c>
+      <c r="Z70">
+        <v>6.82</v>
+      </c>
+      <c r="AA70">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>LEFT(A70,7)</f>
+        <v>Matt Ry</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71">
+        <v>237</v>
+      </c>
+      <c r="J71">
+        <v>351</v>
+      </c>
+      <c r="K71">
+        <v>67.5</v>
+      </c>
+      <c r="L71">
+        <v>2672</v>
+      </c>
+      <c r="M71">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="N71">
+        <v>5.7</v>
+      </c>
+      <c r="O71">
+        <v>7</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>73</v>
+      </c>
+      <c r="R71">
+        <v>7.6</v>
+      </c>
+      <c r="S71">
+        <v>7.9</v>
+      </c>
+      <c r="T71">
+        <v>11.3</v>
+      </c>
+      <c r="U71">
+        <v>267.2</v>
+      </c>
+      <c r="V71">
+        <v>100.8</v>
+      </c>
+      <c r="W71">
+        <v>25</v>
+      </c>
+      <c r="X71">
+        <v>156</v>
+      </c>
+      <c r="Y71">
+        <v>6.69</v>
+      </c>
+      <c r="Z71">
+        <v>6.92</v>
+      </c>
+      <c r="AA71">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>LEFT(A70,8)</f>
+        <v>Matt Rya</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73">
+        <v>96</v>
+      </c>
+      <c r="G73">
+        <v>78</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73">
+        <v>1278</v>
+      </c>
+      <c r="J73">
+        <v>2356</v>
+      </c>
+      <c r="K73">
+        <v>54.2</v>
+      </c>
+      <c r="L73">
+        <v>15315</v>
+      </c>
+      <c r="M73">
+        <v>77</v>
+      </c>
+      <c r="N73">
+        <v>3.3</v>
+      </c>
+      <c r="O73">
+        <v>73</v>
+      </c>
+      <c r="P73">
+        <v>3.1</v>
+      </c>
+      <c r="Q73">
+        <v>85</v>
+      </c>
+      <c r="R73">
+        <v>6.5</v>
+      </c>
+      <c r="S73">
+        <v>5.8</v>
+      </c>
+      <c r="T73">
+        <v>12</v>
+      </c>
+      <c r="U73">
+        <v>159.5</v>
+      </c>
+      <c r="V73">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W73">
+        <v>227</v>
+      </c>
+      <c r="X73">
+        <v>1432</v>
+      </c>
+      <c r="Y73">
+        <v>5.37</v>
+      </c>
+      <c r="Z73">
+        <v>4.7</v>
+      </c>
+      <c r="AA73">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>LEFT(A73,7)</f>
+        <v>Tony Ba</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>39.6</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>LEFT(A73,8)</f>
+        <v>Tony Ban</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76">
+        <v>130</v>
+      </c>
+      <c r="G76">
+        <v>113</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76">
+        <v>1759</v>
+      </c>
+      <c r="J76">
+        <v>3172</v>
+      </c>
+      <c r="K76">
+        <v>55.5</v>
+      </c>
+      <c r="L76">
+        <v>20518</v>
+      </c>
+      <c r="M76">
+        <v>113</v>
+      </c>
+      <c r="N76">
+        <v>3.6</v>
+      </c>
+      <c r="O76">
+        <v>129</v>
+      </c>
+      <c r="P76">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q76">
+        <v>83</v>
+      </c>
+      <c r="R76">
+        <v>6.5</v>
+      </c>
+      <c r="S76">
+        <v>5.4</v>
+      </c>
+      <c r="T76">
+        <v>11.7</v>
+      </c>
+      <c r="U76">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="V76">
+        <v>70.2</v>
+      </c>
+      <c r="W76">
+        <v>263</v>
+      </c>
+      <c r="X76">
+        <v>1730</v>
+      </c>
+      <c r="Y76">
+        <v>5.47</v>
+      </c>
+      <c r="Z76">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AA76">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>LEFT(A76,7)</f>
+        <v>Trent D</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77">
+        <v>59</v>
+      </c>
+      <c r="J77">
+        <v>135</v>
+      </c>
+      <c r="K77">
+        <v>43.7</v>
+      </c>
+      <c r="L77">
+        <v>971</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <v>96</v>
+      </c>
+      <c r="R77">
+        <v>7.2</v>
+      </c>
+      <c r="S77">
+        <v>6.5</v>
+      </c>
+      <c r="T77">
+        <v>16.5</v>
+      </c>
+      <c r="U77">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="V77">
+        <v>66</v>
+      </c>
+      <c r="W77">
+        <v>14</v>
+      </c>
+      <c r="X77">
+        <v>115</v>
+      </c>
+      <c r="Y77">
+        <v>5.74</v>
+      </c>
+      <c r="Z77">
+        <v>5.07</v>
+      </c>
+      <c r="AA77">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>LEFT(A76,8)</f>
+        <v>Trent Di</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79">
+        <v>105</v>
+      </c>
+      <c r="G79">
+        <v>70</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I79">
+        <v>1446</v>
+      </c>
+      <c r="J79">
+        <v>2445</v>
+      </c>
+      <c r="K79">
+        <v>59.1</v>
+      </c>
+      <c r="L79">
+        <v>16774</v>
+      </c>
+      <c r="M79">
+        <v>99</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <v>81</v>
+      </c>
+      <c r="P79">
+        <v>3.3</v>
+      </c>
+      <c r="Q79">
+        <v>86</v>
+      </c>
+      <c r="R79">
+        <v>6.9</v>
+      </c>
+      <c r="S79">
+        <v>6.2</v>
+      </c>
+      <c r="T79">
+        <v>11.6</v>
+      </c>
+      <c r="U79">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="V79">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="W79">
+        <v>129</v>
+      </c>
+      <c r="X79">
+        <v>907</v>
+      </c>
+      <c r="Y79">
+        <v>6.16</v>
+      </c>
+      <c r="Z79">
+        <v>5.52</v>
+      </c>
+      <c r="AA79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>LEFT(A79,7)</f>
+        <v>Elvis G</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80">
+        <v>75</v>
+      </c>
+      <c r="J80">
+        <v>133</v>
+      </c>
+      <c r="K80">
+        <v>56.4</v>
+      </c>
+      <c r="L80">
+        <v>718</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O80">
+        <v>6</v>
+      </c>
+      <c r="P80">
+        <v>4.5</v>
+      </c>
+      <c r="Q80">
+        <v>50</v>
+      </c>
+      <c r="R80">
+        <v>5.4</v>
+      </c>
+      <c r="S80">
+        <v>3.8</v>
+      </c>
+      <c r="T80">
+        <v>9.6</v>
+      </c>
+      <c r="U80">
+        <v>89.8</v>
+      </c>
+      <c r="V80">
+        <v>60.3</v>
+      </c>
+      <c r="W80">
+        <v>8</v>
+      </c>
+      <c r="X80">
+        <v>71</v>
+      </c>
+      <c r="Y80">
+        <v>4.59</v>
+      </c>
+      <c r="Z80">
+        <v>3.1</v>
+      </c>
+      <c r="AA80">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>LEFT(A79,8)</f>
+        <v>Elvis Gr</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82">
+        <v>161</v>
+      </c>
+      <c r="G82">
+        <v>135</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I82">
+        <v>2429</v>
+      </c>
+      <c r="J82">
+        <v>4289</v>
+      </c>
+      <c r="K82">
+        <v>56.6</v>
+      </c>
+      <c r="L82">
+        <v>29979</v>
+      </c>
+      <c r="M82">
+        <v>207</v>
+      </c>
+      <c r="N82">
+        <v>4.8</v>
+      </c>
+      <c r="O82">
+        <v>134</v>
+      </c>
+      <c r="P82">
+        <v>3.1</v>
+      </c>
+      <c r="Q82">
+        <v>95</v>
+      </c>
+      <c r="R82">
+        <v>7</v>
+      </c>
+      <c r="S82">
+        <v>6.5</v>
+      </c>
+      <c r="T82">
+        <v>12.3</v>
+      </c>
+      <c r="U82">
+        <v>186.2</v>
+      </c>
+      <c r="V82">
+        <v>81.5</v>
+      </c>
+      <c r="W82">
+        <v>484</v>
+      </c>
+      <c r="X82">
+        <v>3537</v>
+      </c>
+      <c r="Y82">
+        <v>5.54</v>
+      </c>
+      <c r="Z82">
+        <v>5.14</v>
+      </c>
+      <c r="AA82">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>LEFT(A82,9)</f>
+        <v>Randall C</v>
+      </c>
+      <c r="F83">
+        <v>12</v>
+      </c>
+      <c r="G83">
+        <v>9</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I83">
+        <v>192</v>
+      </c>
+      <c r="J83">
+        <v>365</v>
+      </c>
+      <c r="K83">
+        <v>52.6</v>
+      </c>
+      <c r="L83">
+        <v>2426</v>
+      </c>
+      <c r="M83">
+        <v>12</v>
+      </c>
+      <c r="N83">
+        <v>3.3</v>
+      </c>
+      <c r="O83">
+        <v>9</v>
+      </c>
+      <c r="P83">
+        <v>2.5</v>
+      </c>
+      <c r="Q83">
+        <v>66</v>
+      </c>
+      <c r="R83">
+        <v>6.6</v>
+      </c>
+      <c r="S83">
+        <v>6.2</v>
+      </c>
+      <c r="T83">
+        <v>12.6</v>
+      </c>
+      <c r="U83">
+        <v>202.2</v>
+      </c>
+      <c r="V83">
+        <v>74.3</v>
+      </c>
+      <c r="W83">
+        <v>28</v>
+      </c>
+      <c r="X83">
+        <v>223</v>
+      </c>
+      <c r="Y83">
+        <v>5.61</v>
+      </c>
+      <c r="Z83">
+        <v>5.19</v>
+      </c>
+      <c r="AA83">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>LEFT(A82,10)</f>
+        <v>Randall Cu</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85">
+        <v>67</v>
+      </c>
+      <c r="G85">
+        <v>47</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I85">
+        <v>861</v>
+      </c>
+      <c r="J85">
+        <v>1519</v>
+      </c>
+      <c r="K85">
+        <v>56.7</v>
+      </c>
+      <c r="L85">
+        <v>8931</v>
+      </c>
+      <c r="M85">
+        <v>48</v>
+      </c>
+      <c r="N85">
+        <v>3.2</v>
+      </c>
+      <c r="O85">
+        <v>54</v>
+      </c>
+      <c r="P85">
+        <v>3.6</v>
+      </c>
+      <c r="Q85">
+        <v>77</v>
+      </c>
+      <c r="R85">
+        <v>5.9</v>
+      </c>
+      <c r="S85">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T85">
+        <v>10.4</v>
+      </c>
+      <c r="U85">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="V85">
+        <v>69.5</v>
+      </c>
+      <c r="W85">
+        <v>123</v>
+      </c>
+      <c r="X85">
+        <v>802</v>
+      </c>
+      <c r="Y85">
+        <v>4.95</v>
+      </c>
+      <c r="Z85">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AA85">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>LEFT(A85,7)</f>
+        <v>Kyle Bo</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87">
+        <v>31</v>
+      </c>
+      <c r="G87">
+        <v>19</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87">
+        <v>332</v>
+      </c>
+      <c r="J87">
+        <v>605</v>
+      </c>
+      <c r="K87">
+        <v>54.9</v>
+      </c>
+      <c r="L87">
+        <v>3590</v>
+      </c>
+      <c r="M87">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>3.3</v>
+      </c>
+      <c r="O87">
+        <v>25</v>
+      </c>
+      <c r="P87">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q87">
+        <v>80</v>
+      </c>
+      <c r="R87">
+        <v>5.9</v>
+      </c>
+      <c r="S87">
+        <v>4.7</v>
+      </c>
+      <c r="T87">
+        <v>10.8</v>
+      </c>
+      <c r="U87">
+        <v>115.8</v>
+      </c>
+      <c r="V87">
+        <v>66.3</v>
+      </c>
+      <c r="W87">
+        <v>55</v>
+      </c>
+      <c r="X87">
+        <v>394</v>
+      </c>
+      <c r="Y87">
+        <v>4.84</v>
+      </c>
+      <c r="Z87">
+        <v>3.74</v>
+      </c>
+      <c r="AA87">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>LEFT(A87,9)</f>
+        <v>Anthony W</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88">
+        <v>20</v>
+      </c>
+      <c r="J88">
+        <v>37</v>
+      </c>
+      <c r="K88">
+        <v>54.1</v>
+      </c>
+      <c r="L88">
+        <v>214</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2.7</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>5.4</v>
+      </c>
+      <c r="Q88">
+        <v>35</v>
+      </c>
+      <c r="R88">
+        <v>5.8</v>
+      </c>
+      <c r="S88">
+        <v>3.9</v>
+      </c>
+      <c r="T88">
+        <v>10.7</v>
+      </c>
+      <c r="U88">
+        <v>214</v>
+      </c>
+      <c r="V88">
+        <v>57.7</v>
+      </c>
+      <c r="W88">
+        <v>2</v>
+      </c>
+      <c r="X88">
+        <v>13</v>
+      </c>
+      <c r="Y88">
+        <v>5.15</v>
+      </c>
+      <c r="Z88">
+        <v>3.36</v>
+      </c>
+      <c r="AA88">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>LEFT(A87,10)</f>
+        <v>Anthony Wr</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90">
+        <v>161</v>
+      </c>
+      <c r="G90">
+        <v>153</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I90">
+        <v>2733</v>
+      </c>
+      <c r="J90">
+        <v>4544</v>
+      </c>
+      <c r="K90">
+        <v>60.1</v>
+      </c>
+      <c r="L90">
+        <v>31304</v>
+      </c>
+      <c r="M90">
+        <v>174</v>
+      </c>
+      <c r="N90">
+        <v>3.8</v>
+      </c>
+      <c r="O90">
+        <v>119</v>
+      </c>
+      <c r="P90">
+        <v>2.6</v>
+      </c>
+      <c r="Q90">
+        <v>87</v>
+      </c>
+      <c r="R90">
+        <v>6.9</v>
+      </c>
+      <c r="S90">
+        <v>6.5</v>
+      </c>
+      <c r="T90">
+        <v>11.5</v>
+      </c>
+      <c r="U90">
+        <v>194.4</v>
+      </c>
+      <c r="V90">
+        <v>82.8</v>
+      </c>
+      <c r="W90">
+        <v>254</v>
+      </c>
+      <c r="X90">
+        <v>1567</v>
+      </c>
+      <c r="Y90">
+        <v>6.2</v>
+      </c>
+      <c r="Z90">
+        <v>5.81</v>
+      </c>
+      <c r="AA90">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>LEFT(A90,7)</f>
+        <v>Steve M</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91">
+        <v>184</v>
+      </c>
+      <c r="J91">
+        <v>311</v>
+      </c>
+      <c r="K91">
+        <v>59.2</v>
+      </c>
+      <c r="L91">
+        <v>1764</v>
+      </c>
+      <c r="M91">
+        <v>6</v>
+      </c>
+      <c r="N91">
+        <v>1.9</v>
+      </c>
+      <c r="O91">
+        <v>11</v>
+      </c>
+      <c r="P91">
+        <v>3.5</v>
+      </c>
+      <c r="Q91">
+        <v>49</v>
+      </c>
+      <c r="R91">
+        <v>5.7</v>
+      </c>
+      <c r="S91">
+        <v>4.5</v>
+      </c>
+      <c r="T91">
+        <v>9.6</v>
+      </c>
+      <c r="U91">
+        <v>176.4</v>
+      </c>
+      <c r="V91">
+        <v>66.7</v>
+      </c>
+      <c r="W91">
+        <v>14</v>
+      </c>
+      <c r="X91">
+        <v>80</v>
+      </c>
+      <c r="Y91">
+        <v>5.18</v>
+      </c>
+      <c r="Z91">
+        <v>4.03</v>
+      </c>
+      <c r="AA91">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>LEFT(A90,8)</f>
+        <v>Steve Mc</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I93">
+        <v>121</v>
+      </c>
+      <c r="J93">
+        <v>234</v>
+      </c>
+      <c r="K93">
+        <v>51.7</v>
+      </c>
+      <c r="L93">
+        <v>1734</v>
+      </c>
+      <c r="M93">
+        <v>8</v>
+      </c>
+      <c r="N93">
+        <v>3.4</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="P93">
+        <v>2.1</v>
+      </c>
+      <c r="Q93">
+        <v>79</v>
+      </c>
+      <c r="R93">
+        <v>7.4</v>
+      </c>
+      <c r="S93">
+        <v>7.1</v>
+      </c>
+      <c r="T93">
+        <v>14.3</v>
+      </c>
+      <c r="U93">
+        <v>86.7</v>
+      </c>
+      <c r="V93">
+        <v>78.5</v>
+      </c>
+      <c r="W93">
+        <v>23</v>
+      </c>
+      <c r="X93">
+        <v>142</v>
+      </c>
+      <c r="Y93">
+        <v>6.19</v>
+      </c>
+      <c r="Z93">
+        <v>5.94</v>
+      </c>
+      <c r="AA93">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>LEFT(A93,7)</f>
+        <v>Troy Sm</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95">
+        <v>163</v>
+      </c>
+      <c r="G95">
+        <v>163</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95">
+        <v>3499</v>
+      </c>
+      <c r="J95">
+        <v>5670</v>
+      </c>
+      <c r="K95">
+        <v>61.7</v>
+      </c>
+      <c r="L95">
+        <v>38245</v>
+      </c>
+      <c r="M95">
+        <v>212</v>
+      </c>
+      <c r="N95">
+        <v>3.7</v>
+      </c>
+      <c r="O95">
+        <v>136</v>
+      </c>
+      <c r="P95">
+        <v>2.4</v>
+      </c>
+      <c r="Q95">
+        <v>95</v>
+      </c>
+      <c r="R95">
+        <v>6.7</v>
+      </c>
+      <c r="S95">
+        <v>6.4</v>
+      </c>
+      <c r="T95">
+        <v>10.9</v>
+      </c>
+      <c r="U95">
+        <v>234.6</v>
+      </c>
+      <c r="V95">
+        <v>84.1</v>
+      </c>
+      <c r="W95">
+        <v>333</v>
+      </c>
+      <c r="X95">
+        <v>2360</v>
+      </c>
+      <c r="Y95">
+        <v>5.98</v>
+      </c>
+      <c r="Z95">
+        <v>5.66</v>
+      </c>
+      <c r="AA95">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>LEFT(A95,7)</f>
+        <v>Joe Fla</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I96">
+        <v>253</v>
+      </c>
+      <c r="J96">
+        <v>447</v>
+      </c>
+      <c r="K96">
+        <v>56.6</v>
+      </c>
+      <c r="L96">
+        <v>3223</v>
+      </c>
+      <c r="M96">
+        <v>25</v>
+      </c>
+      <c r="N96">
+        <v>5.6</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q96">
+        <v>70</v>
+      </c>
+      <c r="R96">
+        <v>7.2</v>
+      </c>
+      <c r="S96">
+        <v>7.3</v>
+      </c>
+      <c r="T96">
+        <v>12.7</v>
+      </c>
+      <c r="U96">
+        <v>214.9</v>
+      </c>
+      <c r="V96">
+        <v>88.6</v>
+      </c>
+      <c r="W96">
+        <v>28</v>
+      </c>
+      <c r="X96">
+        <v>184</v>
+      </c>
+      <c r="Y96">
+        <v>6.4</v>
+      </c>
+      <c r="Z96">
+        <v>6.5</v>
+      </c>
+      <c r="AA96">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>LEFT(A95,8)</f>
+        <v>Joe Flac</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98">
+        <v>22</v>
+      </c>
+      <c r="G98">
+        <v>14</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>472</v>
+      </c>
+      <c r="K98">
+        <v>54</v>
+      </c>
+      <c r="L98">
+        <v>2520</v>
+      </c>
+      <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
+        <v>1.5</v>
+      </c>
+      <c r="O98">
+        <v>14</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>55</v>
+      </c>
+      <c r="R98">
+        <v>5.3</v>
+      </c>
+      <c r="S98">
+        <v>4.3</v>
+      </c>
+      <c r="T98">
+        <v>9.9</v>
+      </c>
+      <c r="U98">
+        <v>114.5</v>
+      </c>
+      <c r="V98">
+        <v>61.9</v>
+      </c>
+      <c r="W98">
+        <v>43</v>
+      </c>
+      <c r="X98">
+        <v>281</v>
+      </c>
+      <c r="Y98">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Z98">
+        <v>3.4</v>
+      </c>
+      <c r="AA98">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>LEFT(A98,7)</f>
+        <v>Jimmy C</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>21</v>
+      </c>
+      <c r="G100">
+        <v>8</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I100">
+        <v>190</v>
+      </c>
+      <c r="J100">
+        <v>345</v>
+      </c>
+      <c r="K100">
+        <v>55.1</v>
+      </c>
+      <c r="L100">
+        <v>1835</v>
+      </c>
+      <c r="M100">
+        <v>9</v>
+      </c>
+      <c r="N100">
+        <v>2.6</v>
+      </c>
+      <c r="O100">
+        <v>10</v>
+      </c>
+      <c r="P100">
+        <v>2.9</v>
+      </c>
+      <c r="Q100">
+        <v>48</v>
+      </c>
+      <c r="R100">
+        <v>5.3</v>
+      </c>
+      <c r="S100">
+        <v>4.5</v>
+      </c>
+      <c r="T100">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="U100">
+        <v>87.4</v>
+      </c>
+      <c r="V100">
+        <v>66.8</v>
+      </c>
+      <c r="W100">
+        <v>7</v>
+      </c>
+      <c r="X100">
+        <v>37</v>
+      </c>
+      <c r="Y100">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Z100">
+        <v>4.34</v>
+      </c>
+      <c r="AA100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>LEFT(A100,7)</f>
+        <v>Ryan Ma</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="F102">
+        <v>48</v>
+      </c>
+      <c r="G102">
+        <v>29</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I102">
+        <v>494</v>
+      </c>
+      <c r="J102">
+        <v>806</v>
+      </c>
+      <c r="K102">
+        <v>61.3</v>
+      </c>
+      <c r="L102">
+        <v>5795</v>
+      </c>
+      <c r="M102">
+        <v>30</v>
+      </c>
+      <c r="N102">
+        <v>3.7</v>
+      </c>
+      <c r="O102">
+        <v>23</v>
+      </c>
+      <c r="P102">
+        <v>2.9</v>
+      </c>
+      <c r="Q102">
+        <v>74</v>
+      </c>
+      <c r="R102">
+        <v>7.2</v>
+      </c>
+      <c r="S102">
+        <v>6.7</v>
+      </c>
+      <c r="T102">
+        <v>11.7</v>
+      </c>
+      <c r="U102">
+        <v>120.7</v>
+      </c>
+      <c r="V102">
+        <v>83.6</v>
+      </c>
+      <c r="W102">
+        <v>140</v>
+      </c>
+      <c r="X102">
+        <v>817</v>
+      </c>
+      <c r="Y102">
+        <v>5.26</v>
+      </c>
+      <c r="Z102">
+        <v>4.8</v>
+      </c>
+      <c r="AA102">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>LEFT(A102,7)</f>
+        <v>Rob Joh</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103">
+        <v>11</v>
+      </c>
+      <c r="J103">
+        <v>23</v>
+      </c>
+      <c r="K103">
+        <v>47.8</v>
+      </c>
+      <c r="L103">
+        <v>152</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>37</v>
+      </c>
+      <c r="R103">
+        <v>6.6</v>
+      </c>
+      <c r="S103">
+        <v>6.6</v>
+      </c>
+      <c r="T103">
+        <v>13.8</v>
+      </c>
+      <c r="U103">
+        <v>76</v>
+      </c>
+      <c r="V103">
+        <v>69.5</v>
+      </c>
+      <c r="W103">
+        <v>6</v>
+      </c>
+      <c r="X103">
+        <v>34</v>
+      </c>
+      <c r="Y103">
+        <v>4.07</v>
+      </c>
+      <c r="Z103">
+        <v>4.07</v>
+      </c>
+      <c r="AA103">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>LEFT(A102,8)</f>
+        <v>Rob John</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105">
+        <v>92</v>
+      </c>
+      <c r="G105">
+        <v>66</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I105">
+        <v>1177</v>
+      </c>
+      <c r="J105">
+        <v>2151</v>
+      </c>
+      <c r="K105">
+        <v>54.7</v>
+      </c>
+      <c r="L105">
+        <v>14715</v>
+      </c>
+      <c r="M105">
+        <v>86</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>68</v>
+      </c>
+      <c r="P105">
+        <v>3.2</v>
+      </c>
+      <c r="Q105">
+        <v>84</v>
+      </c>
+      <c r="R105">
+        <v>6.8</v>
+      </c>
+      <c r="S105">
+        <v>6.2</v>
+      </c>
+      <c r="T105">
+        <v>12.5</v>
+      </c>
+      <c r="U105">
+        <v>159.9</v>
+      </c>
+      <c r="V105">
+        <v>76.3</v>
+      </c>
+      <c r="W105">
+        <v>107</v>
+      </c>
+      <c r="X105">
+        <v>687</v>
+      </c>
+      <c r="Y105">
+        <v>6.21</v>
+      </c>
+      <c r="Z105">
+        <v>5.62</v>
+      </c>
+      <c r="AA105">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>LEFT(A105,7)</f>
+        <v>Doug Fl</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106">
+        <v>32</v>
+      </c>
+      <c r="J106">
+        <v>67</v>
+      </c>
+      <c r="K106">
+        <v>47.8</v>
+      </c>
+      <c r="L106">
+        <v>494</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <v>3</v>
+      </c>
+      <c r="P106">
+        <v>4.5</v>
+      </c>
+      <c r="Q106">
+        <v>65</v>
+      </c>
+      <c r="R106">
+        <v>7.4</v>
+      </c>
+      <c r="S106">
+        <v>6</v>
+      </c>
+      <c r="T106">
+        <v>15.4</v>
+      </c>
+      <c r="U106">
+        <v>247</v>
+      </c>
+      <c r="V106">
+        <v>63.9</v>
+      </c>
+      <c r="W106">
+        <v>4</v>
+      </c>
+      <c r="X106">
+        <v>28</v>
+      </c>
+      <c r="Y106">
+        <v>6.56</v>
+      </c>
+      <c r="Z106">
+        <v>5.23</v>
+      </c>
+      <c r="AA106">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>LEFT(A105,8)</f>
+        <v>Doug Flu</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108">
+        <v>194</v>
+      </c>
+      <c r="G108">
+        <v>193</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I108">
+        <v>3839</v>
+      </c>
+      <c r="J108">
+        <v>6717</v>
+      </c>
+      <c r="K108">
+        <v>57.2</v>
+      </c>
+      <c r="L108">
+        <v>44611</v>
+      </c>
+      <c r="M108">
+        <v>251</v>
+      </c>
+      <c r="N108">
+        <v>3.7</v>
+      </c>
+      <c r="O108">
+        <v>206</v>
+      </c>
+      <c r="P108">
+        <v>3.1</v>
+      </c>
+      <c r="Q108">
+        <v>86</v>
+      </c>
+      <c r="R108">
+        <v>6.6</v>
+      </c>
+      <c r="S108">
+        <v>6</v>
+      </c>
+      <c r="T108">
+        <v>11.6</v>
+      </c>
+      <c r="U108">
+        <v>230</v>
+      </c>
+      <c r="V108">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="W108">
+        <v>467</v>
+      </c>
+      <c r="X108">
+        <v>3135</v>
+      </c>
+      <c r="Y108">
+        <v>5.77</v>
+      </c>
+      <c r="Z108">
+        <v>5.18</v>
+      </c>
+      <c r="AA108">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>LEFT(A108,7)</f>
+        <v>Drew Bl</v>
+      </c>
+      <c r="F109">
+        <v>7</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I109">
+        <v>129</v>
+      </c>
+      <c r="J109">
+        <v>252</v>
+      </c>
+      <c r="K109">
+        <v>51.2</v>
+      </c>
+      <c r="L109">
+        <v>1335</v>
+      </c>
+      <c r="M109">
+        <v>6</v>
+      </c>
+      <c r="N109">
+        <v>2.4</v>
+      </c>
+      <c r="O109">
+        <v>12</v>
+      </c>
+      <c r="P109">
+        <v>4.8</v>
+      </c>
+      <c r="Q109">
+        <v>53</v>
+      </c>
+      <c r="R109">
+        <v>5.3</v>
+      </c>
+      <c r="S109">
+        <v>3.6</v>
+      </c>
+      <c r="T109">
+        <v>10.3</v>
+      </c>
+      <c r="U109">
+        <v>190.7</v>
+      </c>
+      <c r="V109">
+        <v>54.9</v>
+      </c>
+      <c r="W109">
         <v>17</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="X109">
+        <v>131</v>
+      </c>
+      <c r="Y109">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Z109">
+        <v>2.91</v>
+      </c>
+      <c r="AA109">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>LEFT(A108,8)</f>
+        <v>Drew Ble</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F111">
+        <v>37</v>
+      </c>
+      <c r="G111">
+        <v>24</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I111">
+        <v>565</v>
+      </c>
+      <c r="J111">
+        <v>893</v>
+      </c>
+      <c r="K111">
+        <v>63.3</v>
+      </c>
+      <c r="L111">
+        <v>5916</v>
+      </c>
+      <c r="M111">
+        <v>39</v>
+      </c>
+      <c r="N111">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O111">
+        <v>38</v>
+      </c>
+      <c r="P111">
+        <v>4.3</v>
+      </c>
+      <c r="Q111">
+        <v>68</v>
+      </c>
+      <c r="R111">
+        <v>6.6</v>
+      </c>
+      <c r="S111">
+        <v>5.6</v>
+      </c>
+      <c r="T111">
+        <v>10.5</v>
+      </c>
+      <c r="U111">
+        <v>159.9</v>
+      </c>
+      <c r="V111">
+        <v>79.2</v>
+      </c>
+      <c r="W111">
+        <v>71</v>
+      </c>
+      <c r="X111">
+        <v>540</v>
+      </c>
+      <c r="Y111">
+        <v>5.58</v>
+      </c>
+      <c r="Z111">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AA111">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>LEFT(A111,7)</f>
+        <v>Kelly H</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I112">
+        <v>26</v>
+      </c>
+      <c r="J112">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>60.5</v>
+      </c>
+      <c r="L112">
+        <v>429</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q112">
+        <v>83</v>
+      </c>
+      <c r="R112">
+        <v>10</v>
+      </c>
+      <c r="S112">
+        <v>10.3</v>
+      </c>
+      <c r="T112">
+        <v>16.5</v>
+      </c>
+      <c r="U112">
+        <v>429</v>
+      </c>
+      <c r="V112">
+        <v>107.6</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>5</v>
+      </c>
+      <c r="Y112">
+        <v>9.64</v>
+      </c>
+      <c r="Z112">
+        <v>9.98</v>
+      </c>
+      <c r="AA112">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>LEFT(A111,8)</f>
+        <v>Kelly Ho</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114">
+        <v>140</v>
+      </c>
+      <c r="G114">
+        <v>125</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I114">
+        <v>2562</v>
+      </c>
+      <c r="J114">
+        <v>4264</v>
+      </c>
+      <c r="K114">
+        <v>60.1</v>
+      </c>
+      <c r="L114">
+        <v>29190</v>
+      </c>
+      <c r="M114">
+        <v>190</v>
+      </c>
+      <c r="N114">
+        <v>4.5</v>
+      </c>
+      <c r="O114">
+        <v>145</v>
+      </c>
+      <c r="P114">
+        <v>3.4</v>
+      </c>
+      <c r="Q114">
+        <v>98</v>
+      </c>
+      <c r="R114">
+        <v>6.8</v>
+      </c>
+      <c r="S114">
+        <v>6.2</v>
+      </c>
+      <c r="T114">
+        <v>11.4</v>
+      </c>
+      <c r="U114">
+        <v>208.5</v>
+      </c>
+      <c r="V114">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="W114">
+        <v>244</v>
+      </c>
+      <c r="X114">
+        <v>1293</v>
+      </c>
+      <c r="Y114">
+        <v>6.19</v>
+      </c>
+      <c r="Z114">
+        <v>5.58</v>
+      </c>
+      <c r="AA114">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>LEFT(A114,7)</f>
+        <v>Ryan Fi</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I116">
+        <v>27</v>
+      </c>
+      <c r="J116">
+        <v>52</v>
+      </c>
+      <c r="K116">
+        <v>51.9</v>
+      </c>
+      <c r="L116">
+        <v>252</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>5</v>
+      </c>
+      <c r="P116">
+        <v>9.6</v>
+      </c>
+      <c r="Q116">
+        <v>33</v>
+      </c>
+      <c r="R116">
+        <v>4.8</v>
+      </c>
+      <c r="S116">
+        <v>0.5</v>
+      </c>
+      <c r="T116">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U116">
+        <v>84</v>
+      </c>
+      <c r="V116">
+        <v>26</v>
+      </c>
+      <c r="W116">
+        <v>5</v>
+      </c>
+      <c r="X116">
+        <v>13</v>
+      </c>
+      <c r="Y116">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Z116">
+        <v>0.25</v>
+      </c>
+      <c r="AA116">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>LEFT(A116,7)</f>
+        <v>Brian B</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118">
+        <v>30</v>
+      </c>
+      <c r="G118">
+        <v>18</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I118">
+        <v>343</v>
+      </c>
+      <c r="J118">
+        <v>590</v>
+      </c>
+      <c r="K118">
+        <v>58.1</v>
+      </c>
+      <c r="L118">
+        <v>3767</v>
+      </c>
+      <c r="M118">
+        <v>20</v>
+      </c>
+      <c r="N118">
+        <v>3.4</v>
+      </c>
+      <c r="O118">
+        <v>16</v>
+      </c>
+      <c r="P118">
+        <v>2.7</v>
+      </c>
+      <c r="Q118">
+        <v>80</v>
+      </c>
+      <c r="R118">
+        <v>6.4</v>
+      </c>
+      <c r="S118">
+        <v>5.8</v>
+      </c>
+      <c r="T118">
+        <v>11</v>
+      </c>
+      <c r="U118">
+        <v>125.6</v>
+      </c>
+      <c r="V118">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="W118">
+        <v>47</v>
+      </c>
+      <c r="X118">
+        <v>297</v>
+      </c>
+      <c r="Y118">
+        <v>5.45</v>
+      </c>
+      <c r="Z118">
+        <v>4.95</v>
+      </c>
+      <c r="AA118">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>LEFT(A118,7)</f>
+        <v>EJ Manu</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I120">
+        <v>26</v>
+      </c>
+      <c r="J120">
+        <v>59</v>
+      </c>
+      <c r="K120">
+        <v>44.1</v>
+      </c>
+      <c r="L120">
+        <v>309</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1.7</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q120">
+        <v>59</v>
+      </c>
+      <c r="R120">
+        <v>5.2</v>
+      </c>
+      <c r="S120">
+        <v>3.3</v>
+      </c>
+      <c r="T120">
+        <v>11.9</v>
+      </c>
+      <c r="U120">
+        <v>154.5</v>
+      </c>
+      <c r="V120">
+        <v>45.1</v>
+      </c>
+      <c r="W120">
+        <v>2</v>
+      </c>
+      <c r="X120">
+        <v>11</v>
+      </c>
+      <c r="Y120">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Z120">
+        <v>3</v>
+      </c>
+      <c r="AA120">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>LEFT(A120,7)</f>
+        <v>Jeff Tu</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122">
+        <v>87</v>
+      </c>
+      <c r="G122">
+        <v>82</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I122">
+        <v>1613</v>
+      </c>
+      <c r="J122">
+        <v>2712</v>
+      </c>
+      <c r="K122">
+        <v>59.5</v>
+      </c>
+      <c r="L122">
+        <v>18037</v>
+      </c>
+      <c r="M122">
+        <v>101</v>
+      </c>
+      <c r="N122">
+        <v>3.7</v>
+      </c>
+      <c r="O122">
+        <v>69</v>
+      </c>
+      <c r="P122">
+        <v>2.5</v>
+      </c>
+      <c r="Q122">
+        <v>87</v>
+      </c>
+      <c r="R122">
+        <v>6.7</v>
+      </c>
+      <c r="S122">
+        <v>6.3</v>
+      </c>
+      <c r="T122">
+        <v>11.2</v>
+      </c>
+      <c r="U122">
+        <v>207.3</v>
+      </c>
+      <c r="V122">
+        <v>81.2</v>
+      </c>
+      <c r="W122">
+        <v>165</v>
+      </c>
+      <c r="X122">
+        <v>1016</v>
+      </c>
+      <c r="Y122">
+        <v>5.92</v>
+      </c>
+      <c r="Z122">
+        <v>5.54</v>
+      </c>
+      <c r="AA122">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>LEFT(A122,7)</f>
+        <v>Kyle Or</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="F124">
+        <v>107</v>
+      </c>
+      <c r="G124">
+        <v>81</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I124">
+        <v>1573</v>
+      </c>
+      <c r="J124">
+        <v>2672</v>
+      </c>
+      <c r="K124">
+        <v>58.9</v>
+      </c>
+      <c r="L124">
+        <v>17463</v>
+      </c>
+      <c r="M124">
+        <v>104</v>
+      </c>
+      <c r="N124">
+        <v>3.9</v>
+      </c>
+      <c r="O124">
+        <v>82</v>
+      </c>
+      <c r="P124">
+        <v>3.1</v>
+      </c>
+      <c r="Q124">
+        <v>79</v>
+      </c>
+      <c r="R124">
+        <v>6.5</v>
+      </c>
+      <c r="S124">
+        <v>5.9</v>
+      </c>
+      <c r="T124">
+        <v>11.1</v>
+      </c>
+      <c r="U124">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="V124">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="W124">
+        <v>209</v>
+      </c>
+      <c r="X124">
+        <v>1144</v>
+      </c>
+      <c r="Y124">
+        <v>5.66</v>
+      </c>
+      <c r="Z124">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AA124">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>LEFT(A124,7)</f>
+        <v>Matt Ca</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I125">
+        <v>9</v>
+      </c>
+      <c r="J125">
+        <v>18</v>
+      </c>
+      <c r="K125">
+        <v>50</v>
+      </c>
+      <c r="L125">
+        <v>70</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>3</v>
+      </c>
+      <c r="P125">
+        <v>16.7</v>
+      </c>
+      <c r="Q125">
+        <v>22</v>
+      </c>
+      <c r="R125">
+        <v>3.9</v>
+      </c>
+      <c r="S125">
+        <v>-3.6</v>
+      </c>
+      <c r="T125">
+        <v>7.8</v>
+      </c>
+      <c r="U125">
+        <v>14</v>
+      </c>
+      <c r="V125">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W125">
+        <v>3</v>
+      </c>
+      <c r="X125">
+        <v>17</v>
+      </c>
+      <c r="Y125">
+        <v>2.52</v>
+      </c>
+      <c r="Z125">
+        <v>-3.9</v>
+      </c>
+      <c r="AA125">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>LEFT(A124,8)</f>
+        <v>Matt Cas</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127">
+        <v>62</v>
+      </c>
+      <c r="G127">
+        <v>46</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I127">
+        <v>835</v>
+      </c>
+      <c r="J127">
+        <v>1356</v>
+      </c>
+      <c r="K127">
+        <v>61.6</v>
+      </c>
+      <c r="L127">
+        <v>9529</v>
+      </c>
+      <c r="M127">
+        <v>53</v>
+      </c>
+      <c r="N127">
+        <v>3.9</v>
+      </c>
+      <c r="O127">
+        <v>20</v>
+      </c>
+      <c r="P127">
+        <v>1.5</v>
+      </c>
+      <c r="Q127">
+        <v>84</v>
+      </c>
+      <c r="R127">
+        <v>7</v>
+      </c>
+      <c r="S127">
+        <v>7.1</v>
+      </c>
+      <c r="T127">
+        <v>11.4</v>
+      </c>
+      <c r="U127">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="V127">
+        <v>89.6</v>
+      </c>
+      <c r="W127">
+        <v>142</v>
+      </c>
+      <c r="X127">
+        <v>774</v>
+      </c>
+      <c r="Y127">
+        <v>5.84</v>
+      </c>
+      <c r="Z127">
+        <v>5.95</v>
+      </c>
+      <c r="AA127">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>LEFT(A127,7)</f>
+        <v>Tyrod T</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I128">
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <v>37</v>
+      </c>
+      <c r="K128">
+        <v>45.9</v>
+      </c>
+      <c r="L128">
+        <v>134</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>2.7</v>
+      </c>
+      <c r="Q128">
+        <v>16</v>
+      </c>
+      <c r="R128">
+        <v>3.6</v>
+      </c>
+      <c r="S128">
+        <v>2.4</v>
+      </c>
+      <c r="T128">
+        <v>7.9</v>
+      </c>
+      <c r="U128">
+        <v>134</v>
+      </c>
+      <c r="V128">
+        <v>44.2</v>
+      </c>
+      <c r="W128">
+        <v>2</v>
+      </c>
+      <c r="X128">
+        <v>15</v>
+      </c>
+      <c r="Y128">
+        <v>3.05</v>
+      </c>
+      <c r="Z128">
+        <v>1.9</v>
+      </c>
+      <c r="AA128">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>LEFT(A127,8)</f>
+        <v>Tyrod Ta</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130">
+        <v>4</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130">
+        <v>68</v>
+      </c>
+      <c r="J130">
+        <v>130</v>
+      </c>
+      <c r="K130">
+        <v>52.3</v>
+      </c>
+      <c r="L130">
+        <v>548</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O130">
+        <v>12</v>
+      </c>
+      <c r="P130">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q130">
+        <v>26</v>
+      </c>
+      <c r="R130">
+        <v>4.2</v>
+      </c>
+      <c r="S130">
+        <v>0.5</v>
+      </c>
+      <c r="T130">
+        <v>8.1</v>
+      </c>
+      <c r="U130">
+        <v>68.5</v>
+      </c>
+      <c r="V130">
+        <v>32.5</v>
+      </c>
+      <c r="W130">
+        <v>8</v>
+      </c>
+      <c r="X130">
+        <v>39</v>
+      </c>
+      <c r="Y130">
+        <v>3.69</v>
+      </c>
+      <c r="Z130">
+        <v>0.21</v>
+      </c>
+      <c r="AA130">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>LEFT(A130,7)</f>
+        <v xml:space="preserve">Nathan </v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
+      <c r="K131">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L131">
+        <v>14</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="Q131">
+        <v>14</v>
+      </c>
+      <c r="R131">
+        <v>4.7</v>
+      </c>
+      <c r="S131">
+        <v>-10.3</v>
+      </c>
+      <c r="T131">
+        <v>14</v>
+      </c>
+      <c r="U131">
+        <v>14</v>
+      </c>
+      <c r="V131">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>4.67</v>
+      </c>
+      <c r="Z131">
+        <v>-10.33</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>LEFT(A130,8)</f>
+        <v>Nathan P</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133">
+        <v>12</v>
+      </c>
+      <c r="G133">
+        <v>7</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I133">
+        <v>174</v>
+      </c>
+      <c r="J133">
+        <v>291</v>
+      </c>
+      <c r="K133">
+        <v>59.8</v>
+      </c>
+      <c r="L133">
+        <v>2143</v>
+      </c>
+      <c r="M133">
+        <v>10</v>
+      </c>
+      <c r="N133">
+        <v>3.4</v>
+      </c>
+      <c r="O133">
+        <v>18</v>
+      </c>
+      <c r="P133">
+        <v>6.2</v>
+      </c>
+      <c r="Q133">
+        <v>47</v>
+      </c>
+      <c r="R133">
+        <v>7.4</v>
+      </c>
+      <c r="S133">
+        <v>5.3</v>
+      </c>
+      <c r="T133">
+        <v>12.3</v>
+      </c>
+      <c r="U133">
+        <v>178.6</v>
+      </c>
+      <c r="V133">
+        <v>68.3</v>
+      </c>
+      <c r="W133">
+        <v>10</v>
+      </c>
+      <c r="X133">
+        <v>75</v>
+      </c>
+      <c r="Y133">
+        <v>6.87</v>
+      </c>
+      <c r="Z133">
+        <v>4.84</v>
+      </c>
+      <c r="AA133">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>LEFT(A133,7)</f>
+        <v>Matt Ba</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="F135">
+        <v>31</v>
+      </c>
+      <c r="G135">
+        <v>11</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I135">
+        <v>262</v>
+      </c>
+      <c r="J135">
+        <v>477</v>
+      </c>
+      <c r="K135">
+        <v>54.9</v>
+      </c>
+      <c r="L135">
+        <v>2985</v>
+      </c>
+      <c r="M135">
+        <v>16</v>
+      </c>
+      <c r="N135">
+        <v>3.4</v>
+      </c>
+      <c r="O135">
+        <v>24</v>
+      </c>
+      <c r="P135">
+        <v>5</v>
+      </c>
+      <c r="Q135">
+        <v>80</v>
+      </c>
+      <c r="R135">
+        <v>6.3</v>
+      </c>
+      <c r="S135">
+        <v>4.7</v>
+      </c>
+      <c r="T135">
+        <v>11.4</v>
+      </c>
+      <c r="U135">
+        <v>96.3</v>
+      </c>
+      <c r="V135">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="W135">
+        <v>19</v>
+      </c>
+      <c r="X135">
+        <v>113</v>
+      </c>
+      <c r="Y135">
+        <v>5.79</v>
+      </c>
+      <c r="Z135">
+        <v>4.26</v>
+      </c>
+      <c r="AA135">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>LEFT(A135,7)</f>
+        <v>Alex Va</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>40</v>
+      </c>
+      <c r="L136">
+        <v>27</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>10</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>17</v>
+      </c>
+      <c r="R136">
+        <v>2.7</v>
+      </c>
+      <c r="S136">
+        <v>4.7</v>
+      </c>
+      <c r="T136">
+        <v>6.8</v>
+      </c>
+      <c r="U136">
+        <v>27</v>
+      </c>
+      <c r="V136">
+        <v>81.2</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>2.7</v>
+      </c>
+      <c r="Z136">
+        <v>4.7</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>LEFT(A135,8)</f>
+        <v>Alex Van</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="F138">
         <v>45</v>
       </c>
-      <c r="E33">
-        <v>320</v>
-      </c>
-      <c r="F33">
-        <v>602</v>
-      </c>
-      <c r="G33">
-        <v>53.2</v>
-      </c>
-      <c r="H33">
-        <v>3707</v>
-      </c>
-      <c r="I33">
-        <v>15</v>
-      </c>
-      <c r="J33">
-        <v>2.5</v>
-      </c>
-      <c r="K33">
-        <v>25</v>
-      </c>
-      <c r="L33">
-        <v>4.2</v>
-      </c>
-      <c r="M33">
-        <v>74</v>
-      </c>
-      <c r="N33">
-        <v>6.2</v>
-      </c>
-      <c r="O33">
-        <v>4.8</v>
-      </c>
-      <c r="P33">
-        <v>11.6</v>
-      </c>
-      <c r="Q33">
-        <v>185.4</v>
-      </c>
-      <c r="R33">
-        <v>63</v>
-      </c>
-      <c r="S33">
-        <v>47</v>
-      </c>
-      <c r="T33">
-        <v>325</v>
-      </c>
-      <c r="U33">
-        <v>5.21</v>
-      </c>
-      <c r="V33">
-        <v>3.94</v>
-      </c>
-      <c r="W33">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
+      <c r="G138">
+        <v>33</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I138">
+        <v>564</v>
+      </c>
+      <c r="J138">
+        <v>952</v>
+      </c>
+      <c r="K138">
+        <v>59.2</v>
+      </c>
+      <c r="L138">
+        <v>6271</v>
+      </c>
+      <c r="M138">
+        <v>33</v>
+      </c>
+      <c r="N138">
+        <v>3.5</v>
+      </c>
+      <c r="O138">
+        <v>34</v>
+      </c>
+      <c r="P138">
+        <v>3.6</v>
+      </c>
+      <c r="Q138">
+        <v>87</v>
+      </c>
+      <c r="R138">
+        <v>6.6</v>
+      </c>
+      <c r="S138">
+        <v>5.7</v>
+      </c>
+      <c r="T138">
+        <v>11.1</v>
+      </c>
+      <c r="U138">
+        <v>139.4</v>
+      </c>
+      <c r="V138">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="W138">
+        <v>108</v>
+      </c>
+      <c r="X138">
+        <v>789</v>
+      </c>
+      <c r="Y138">
+        <v>5.17</v>
+      </c>
+      <c r="Z138">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AA138">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>LEFT(A138,7)</f>
+        <v>J.P. Lo</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="F140">
+        <v>38</v>
+      </c>
+      <c r="G140">
+        <v>33</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I140">
+        <v>563</v>
+      </c>
+      <c r="J140">
+        <v>929</v>
+      </c>
+      <c r="K140">
+        <v>60.6</v>
+      </c>
+      <c r="L140">
+        <v>6033</v>
+      </c>
+      <c r="M140">
+        <v>26</v>
+      </c>
+      <c r="N140">
+        <v>2.8</v>
+      </c>
+      <c r="O140">
+        <v>30</v>
+      </c>
+      <c r="P140">
+        <v>3.2</v>
+      </c>
+      <c r="Q140">
+        <v>70</v>
+      </c>
+      <c r="R140">
+        <v>6.5</v>
+      </c>
+      <c r="S140">
+        <v>5.6</v>
+      </c>
+      <c r="T140">
+        <v>10.7</v>
+      </c>
+      <c r="U140">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="V140">
+        <v>75.5</v>
+      </c>
+      <c r="W140">
+        <v>69</v>
+      </c>
+      <c r="X140">
+        <v>482</v>
+      </c>
+      <c r="Y140">
+        <v>5.56</v>
+      </c>
+      <c r="Z140">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AA140">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>LEFT(A140,7)</f>
+        <v>Trent E</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="F142">
+        <v>7</v>
+      </c>
+      <c r="G142">
+        <v>6</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I142">
+        <v>115</v>
+      </c>
+      <c r="J142">
+        <v>189</v>
+      </c>
+      <c r="K142">
+        <v>60.8</v>
+      </c>
+      <c r="L142">
+        <v>1296</v>
+      </c>
+      <c r="M142">
+        <v>5</v>
+      </c>
+      <c r="N142">
+        <v>2.6</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>2.1</v>
+      </c>
+      <c r="Q142">
+        <v>57</v>
+      </c>
+      <c r="R142">
+        <v>6.9</v>
+      </c>
+      <c r="S142">
+        <v>6.4</v>
+      </c>
+      <c r="T142">
+        <v>11.3</v>
+      </c>
+      <c r="U142">
+        <v>185.1</v>
+      </c>
+      <c r="V142">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="W142">
+        <v>21</v>
+      </c>
+      <c r="X142">
+        <v>114</v>
+      </c>
+      <c r="Y142">
+        <v>5.63</v>
+      </c>
+      <c r="Z142">
+        <v>5.25</v>
+      </c>
+      <c r="AA142">
         <v>10</v>
       </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35">
-        <v>140</v>
-      </c>
-      <c r="F35">
-        <v>274</v>
-      </c>
-      <c r="G35">
-        <v>51.1</v>
-      </c>
-      <c r="H35">
-        <v>1372</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K35">
-        <v>11</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>41</v>
-      </c>
-      <c r="N35">
-        <v>5</v>
-      </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
-      <c r="P35">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Q35">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="R35">
-        <v>52.4</v>
-      </c>
-      <c r="S35">
-        <v>18</v>
-      </c>
-      <c r="T35">
-        <v>137</v>
-      </c>
-      <c r="U35">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="V35">
-        <v>2.74</v>
-      </c>
-      <c r="W35">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36">
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <v>28</v>
-      </c>
-      <c r="G36">
-        <v>57.1</v>
-      </c>
-      <c r="H36">
-        <v>82</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>3.6</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>7.1</v>
-      </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
-      <c r="N36">
-        <v>2.9</v>
-      </c>
-      <c r="O36">
-        <v>0.4</v>
-      </c>
-      <c r="P36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q36">
-        <v>82</v>
-      </c>
-      <c r="R36">
-        <v>44.3</v>
-      </c>
-      <c r="S36">
-        <v>4</v>
-      </c>
-      <c r="T36">
-        <v>31</v>
-      </c>
-      <c r="U36">
-        <v>1.59</v>
-      </c>
-      <c r="V36">
-        <v>-0.59</v>
-      </c>
-      <c r="W36">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38">
-        <v>62</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38">
-        <v>837</v>
-      </c>
-      <c r="F38">
-        <v>1410</v>
-      </c>
-      <c r="G38">
-        <v>59.4</v>
-      </c>
-      <c r="H38">
-        <v>9895</v>
-      </c>
-      <c r="I38">
-        <v>48</v>
-      </c>
-      <c r="J38">
-        <v>3.4</v>
-      </c>
-      <c r="K38">
-        <v>30</v>
-      </c>
-      <c r="L38">
-        <v>2.1</v>
-      </c>
-      <c r="M38">
-        <v>81</v>
-      </c>
-      <c r="N38">
-        <v>7</v>
-      </c>
-      <c r="O38">
-        <v>6.7</v>
-      </c>
-      <c r="P38">
-        <v>11.8</v>
-      </c>
-      <c r="Q38">
-        <v>159.6</v>
-      </c>
-      <c r="R38">
-        <v>83.3</v>
-      </c>
-      <c r="S38">
-        <v>81</v>
-      </c>
-      <c r="T38">
-        <v>571</v>
-      </c>
-      <c r="U38">
-        <v>6.25</v>
-      </c>
-      <c r="V38">
-        <v>5.99</v>
-      </c>
-      <c r="W38">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39">
-        <v>34</v>
-      </c>
-      <c r="G39">
-        <v>44.1</v>
-      </c>
-      <c r="H39">
-        <v>136</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>4</v>
-      </c>
-      <c r="L39">
-        <v>11.8</v>
-      </c>
-      <c r="M39">
-        <v>17</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-      <c r="O39">
-        <v>-1.3</v>
-      </c>
-      <c r="P39">
-        <v>9.1</v>
-      </c>
-      <c r="Q39">
-        <v>68</v>
-      </c>
-      <c r="R39">
-        <v>15.9</v>
-      </c>
-      <c r="S39">
-        <v>3</v>
-      </c>
-      <c r="T39">
-        <v>24</v>
-      </c>
-      <c r="U39">
-        <v>3.03</v>
-      </c>
-      <c r="V39">
-        <v>-1.84</v>
-      </c>
-      <c r="W39">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41">
-        <v>182</v>
-      </c>
-      <c r="C41">
-        <v>181</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41">
-        <v>3941</v>
-      </c>
-      <c r="F41">
-        <v>6307</v>
-      </c>
-      <c r="G41">
-        <v>62.5</v>
-      </c>
-      <c r="H41">
-        <v>46247</v>
-      </c>
-      <c r="I41">
-        <v>294</v>
-      </c>
-      <c r="J41">
-        <v>4.7</v>
-      </c>
-      <c r="K41">
-        <v>187</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
-        <v>91</v>
-      </c>
-      <c r="N41">
-        <v>7.3</v>
-      </c>
-      <c r="O41">
-        <v>6.9</v>
-      </c>
-      <c r="P41">
-        <v>11.7</v>
-      </c>
-      <c r="Q41">
-        <v>254.1</v>
-      </c>
-      <c r="R41">
-        <v>87.9</v>
-      </c>
-      <c r="S41">
-        <v>340</v>
-      </c>
-      <c r="T41">
-        <v>2364</v>
-      </c>
-      <c r="U41">
-        <v>6.6</v>
-      </c>
-      <c r="V41">
-        <v>6.22</v>
-      </c>
-      <c r="W41">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42">
-        <v>67</v>
-      </c>
-      <c r="F42">
-        <v>118</v>
-      </c>
-      <c r="G42">
-        <v>56.8</v>
-      </c>
-      <c r="H42">
-        <v>796</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="J42">
-        <v>4.2</v>
-      </c>
-      <c r="K42">
-        <v>7</v>
-      </c>
-      <c r="L42">
-        <v>5.9</v>
-      </c>
-      <c r="M42">
-        <v>75</v>
-      </c>
-      <c r="N42">
-        <v>6.7</v>
-      </c>
-      <c r="O42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P42">
-        <v>11.9</v>
-      </c>
-      <c r="Q42">
-        <v>199</v>
-      </c>
-      <c r="R42">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="S42">
-        <v>9</v>
-      </c>
-      <c r="T42">
-        <v>65</v>
-      </c>
-      <c r="U42">
-        <v>5.76</v>
-      </c>
-      <c r="V42">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="W42">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44">
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44">
-        <v>345</v>
-      </c>
-      <c r="F44">
-        <v>659</v>
-      </c>
-      <c r="G44">
-        <v>52.4</v>
-      </c>
-      <c r="H44">
-        <v>4059</v>
-      </c>
-      <c r="I44">
-        <v>20</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="K44">
-        <v>24</v>
-      </c>
-      <c r="L44">
-        <v>3.6</v>
-      </c>
-      <c r="M44">
-        <v>87</v>
-      </c>
-      <c r="N44">
-        <v>6.2</v>
-      </c>
-      <c r="O44">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P44">
-        <v>11.8</v>
-      </c>
-      <c r="Q44">
-        <v>106.8</v>
-      </c>
-      <c r="R44">
-        <v>66.3</v>
-      </c>
-      <c r="S44">
-        <v>38</v>
-      </c>
-      <c r="T44">
-        <v>226</v>
-      </c>
-      <c r="U44">
-        <v>5.5</v>
-      </c>
-      <c r="V44">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="W44">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46">
-        <v>51</v>
-      </c>
-      <c r="C46">
-        <v>47</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46">
-        <v>806</v>
-      </c>
-      <c r="F46">
-        <v>1442</v>
-      </c>
-      <c r="G46">
-        <v>55.9</v>
-      </c>
-      <c r="H46">
-        <v>8679</v>
-      </c>
-      <c r="I46">
-        <v>45</v>
-      </c>
-      <c r="J46">
-        <v>3.1</v>
-      </c>
-      <c r="K46">
-        <v>44</v>
-      </c>
-      <c r="L46">
-        <v>3.1</v>
-      </c>
-      <c r="M46">
-        <v>80</v>
-      </c>
-      <c r="N46">
-        <v>6</v>
-      </c>
-      <c r="O46">
-        <v>5.3</v>
-      </c>
-      <c r="P46">
-        <v>10.8</v>
-      </c>
-      <c r="Q46">
-        <v>170.2</v>
-      </c>
-      <c r="R46">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="S46">
-        <v>136</v>
-      </c>
-      <c r="T46">
-        <v>904</v>
-      </c>
-      <c r="U46">
-        <v>4.93</v>
-      </c>
-      <c r="V46">
-        <v>4.24</v>
-      </c>
-      <c r="W46">
-        <v>8.6</v>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>LEFT(A142,7)</f>
+        <v>Thaddeu</v>
       </c>
     </row>
   </sheetData>
